--- a/Automation/target/test-classes/test-data/SetFusionTestData.xlsx
+++ b/Automation/target/test-classes/test-data/SetFusionTestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GmailLoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="APITest" sheetId="2" r:id="rId2"/>
+    <sheet name="SearchData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -425,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -564,4 +565,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>